--- a/lstm_turn_taking_prediction_ADOS_Leave_one_out/Feature_ADOS.xlsx
+++ b/lstm_turn_taking_prediction_ADOS_Leave_one_out/Feature_ADOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="256">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -598,13 +598,196 @@
     <t xml:space="preserve">GEC</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Autism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_05_01_063_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_06_01_045_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_06_01_056_1</t>
   </si>
   <si>
     <t xml:space="preserve">Asperger's</t>
   </si>
   <si>
+    <t xml:space="preserve">2015_12_06_01_097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_07_02_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_13_01_153</t>
+  </si>
+  <si>
     <t xml:space="preserve">HFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_25_01_098fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_12_27_01_058fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_01_22_01_043_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_01_22_02_083_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_01_23_01_069_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_01_26_02_108_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_01_27_01_154_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_01_31_01_109_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_02_02_01_074_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_03_05_01_079fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_04_27_02_161_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_06_24_01_103_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_06_25_01_070_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_06_27_02_017_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_07_05_01_135_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_07_06_01_078_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_07_23_01_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_07_30_01_148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_07_30_01_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_08_05_01_134fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_08_12_01_179_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_08_12_01_179_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_08_18_01_163_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_08_26_01_168_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_08_27_01_044_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_09_09_01_339_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_09_21_01_191_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_09_24_01_174_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_10_12_01_219_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_10_21_01_202_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_10_22_01_161_fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_10_29_01_190_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_11_27_01_207_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_12_04_01_188_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_12_04_01_234_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_12_24_01_226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_12_24_01_233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_14_01_222_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_16_02_024_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_18_01_205_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_20_01_243_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_21_01_242_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_24_01_235_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_01_25_01_225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_02_08_02_023_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_02_15_01_442_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_03_05_01_365_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_03_13_01_194_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_03_18_01_196_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_04_08_01_256_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_04_22_01_274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_05_21_01_292_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_05_21_01_296_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_06_13_01_216_1</t>
   </si>
 </sst>
 </file>
@@ -999,23 +1182,25 @@
   </sheetPr>
   <dimension ref="A1:IW68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AV1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG16" activeCellId="0" sqref="BG16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="HA1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="HQ15" activeCellId="0" sqref="HQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" hidden="false" max="40" min="1" style="1" width="9.5037037037037"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="2" width="5.0962962962963"/>
-    <col collapsed="false" hidden="false" max="49" min="45" style="1" width="9.5037037037037"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="80" min="51" style="1" width="9.5037037037037"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="1" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="257" min="82" style="1" width="9.5037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="40" min="1" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="2" width="5.29259259259259"/>
+    <col collapsed="false" hidden="false" max="49" min="45" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="80" min="51" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="1" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="222" min="82" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="223" min="223" style="1" width="25.7740740740741"/>
+    <col collapsed="false" hidden="false" max="257" min="224" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1889,9 @@
       <c r="HN1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="HO1" s="0"/>
+      <c r="HO1" s="0" t="s">
+        <v>192</v>
+      </c>
       <c r="HP1" s="0"/>
       <c r="HQ1" s="0"/>
       <c r="HR1" s="0"/>
@@ -1994,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB2" s="13" t="n">
         <v>0</v>
@@ -2422,6 +2609,9 @@
       </c>
       <c r="HN2" s="0" t="n">
         <v>198.8571428571</v>
+      </c>
+      <c r="HO2" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="CA3" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB3" s="13" t="n">
         <v>0</v>
@@ -3109,7 +3299,9 @@
       <c r="HN3" s="5" t="n">
         <v>152.2857142857</v>
       </c>
-      <c r="HO3" s="0"/>
+      <c r="HO3" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="HP3" s="0"/>
       <c r="HQ3" s="0"/>
       <c r="HR3" s="0"/>
@@ -3397,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="CA4" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB4" s="13" t="n">
         <v>0</v>
@@ -3826,7 +4018,9 @@
       <c r="HN4" s="5" t="n">
         <v>110.8571428571</v>
       </c>
-      <c r="HO4" s="0"/>
+      <c r="HO4" s="0" t="s">
+        <v>196</v>
+      </c>
       <c r="HP4" s="0"/>
       <c r="HQ4" s="0"/>
       <c r="HR4" s="0"/>
@@ -4122,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="CA5" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB5" s="2" t="n">
         <v>1</v>
@@ -4549,7 +4743,9 @@
       <c r="HN5" s="5" t="n">
         <v>145.2063492063</v>
       </c>
-      <c r="HO5" s="0"/>
+      <c r="HO5" s="0" t="s">
+        <v>198</v>
+      </c>
       <c r="HP5" s="0"/>
       <c r="HQ5" s="0"/>
       <c r="HR5" s="0"/>
@@ -4839,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="CA6" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB6" s="13" t="n">
         <v>0</v>
@@ -5265,6 +5461,9 @@
       </c>
       <c r="HN6" s="5" t="n">
         <v>105.5714285714</v>
+      </c>
+      <c r="HO6" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="CA7" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB7" s="2" t="n">
         <v>1</v>
@@ -5956,7 +6155,9 @@
       <c r="HN7" s="5" t="n">
         <v>168.7142857143</v>
       </c>
-      <c r="HO7" s="0"/>
+      <c r="HO7" s="0" t="s">
+        <v>200</v>
+      </c>
       <c r="HP7" s="0"/>
       <c r="HQ7" s="0"/>
       <c r="HR7" s="0"/>
@@ -6252,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="CA8" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB8" s="2" t="n">
         <v>2</v>
@@ -6679,7 +6880,9 @@
       <c r="HN8" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="HO8" s="0"/>
+      <c r="HO8" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="HP8" s="0"/>
       <c r="HQ8" s="0"/>
       <c r="HR8" s="0"/>
@@ -6975,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="CA9" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB9" s="2" t="n">
         <v>2</v>
@@ -7402,7 +7605,9 @@
       <c r="HN9" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="HO9" s="0"/>
+      <c r="HO9" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="HP9" s="0"/>
       <c r="HQ9" s="0"/>
       <c r="HR9" s="0"/>
@@ -7692,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="CA10" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB10" s="13" t="n">
         <v>0</v>
@@ -8119,6 +8324,9 @@
       <c r="HN10" s="5" t="n">
         <v>99.7142857143</v>
       </c>
+      <c r="HO10" s="9" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -8372,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="CA11" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB11" s="13" t="n">
         <v>1</v>
@@ -8779,7 +8987,9 @@
       <c r="HL11" s="0"/>
       <c r="HM11" s="0"/>
       <c r="HN11" s="0"/>
-      <c r="HO11" s="0"/>
+      <c r="HO11" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="HP11" s="0"/>
       <c r="HQ11" s="0"/>
       <c r="HR11" s="0"/>
@@ -9069,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="CA12" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB12" s="13" t="n">
         <v>0</v>
@@ -9496,7 +9706,9 @@
       <c r="HN12" s="5" t="n">
         <v>153.4285714286</v>
       </c>
-      <c r="HO12" s="0"/>
+      <c r="HO12" s="0" t="s">
+        <v>206</v>
+      </c>
       <c r="HP12" s="0"/>
       <c r="HQ12" s="0"/>
       <c r="HR12" s="0"/>
@@ -9786,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="CA13" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB13" s="13" t="n">
         <v>1</v>
@@ -10213,7 +10425,9 @@
       <c r="HN13" s="5" t="n">
         <v>171.5714285714</v>
       </c>
-      <c r="HO13" s="0"/>
+      <c r="HO13" s="0" t="s">
+        <v>207</v>
+      </c>
       <c r="HP13" s="0"/>
       <c r="HQ13" s="0"/>
       <c r="HR13" s="0"/>
@@ -10503,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="CA14" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB14" s="13" t="n">
         <v>2</v>
@@ -10930,7 +11144,9 @@
       <c r="HN14" s="5" t="n">
         <v>99.8571428571</v>
       </c>
-      <c r="HO14" s="0"/>
+      <c r="HO14" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="HP14" s="0"/>
       <c r="HQ14" s="0"/>
       <c r="HR14" s="0"/>
@@ -11220,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="CA15" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB15" s="13" t="n">
         <v>1</v>
@@ -11647,7 +11863,9 @@
       <c r="HN15" s="5" t="n">
         <v>143.2857142857</v>
       </c>
-      <c r="HO15" s="0"/>
+      <c r="HO15" s="0" t="s">
+        <v>209</v>
+      </c>
       <c r="HP15" s="0"/>
       <c r="HQ15" s="0"/>
       <c r="HR15" s="0"/>
@@ -11935,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="CA16" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB16" s="13" t="n">
         <v>2</v>
@@ -12366,7 +12584,9 @@
       <c r="HN16" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="HO16" s="0"/>
+      <c r="HO16" s="0" t="s">
+        <v>210</v>
+      </c>
       <c r="HP16" s="0"/>
       <c r="HQ16" s="0"/>
       <c r="HR16" s="0"/>
@@ -12656,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="CA17" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB17" s="13" t="n">
         <v>0</v>
@@ -13083,7 +13303,9 @@
       <c r="HN17" s="5" t="n">
         <v>132.8571428571</v>
       </c>
-      <c r="HO17" s="0"/>
+      <c r="HO17" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="HP17" s="0"/>
       <c r="HQ17" s="0"/>
       <c r="HR17" s="0"/>
@@ -13373,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="CA18" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB18" s="13" t="n">
         <v>0</v>
@@ -13804,7 +14026,9 @@
       <c r="HN18" s="5" t="n">
         <v>78.2857142857</v>
       </c>
-      <c r="HO18" s="0"/>
+      <c r="HO18" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="HP18" s="0"/>
       <c r="HQ18" s="0"/>
       <c r="HR18" s="0"/>
@@ -14094,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="CA19" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB19" s="13" t="n">
         <v>0</v>
@@ -14523,7 +14747,9 @@
       <c r="HN19" s="5" t="n">
         <v>128.1428571429</v>
       </c>
-      <c r="HO19" s="0"/>
+      <c r="HO19" s="0" t="s">
+        <v>213</v>
+      </c>
       <c r="HP19" s="0"/>
       <c r="HQ19" s="0"/>
       <c r="HR19" s="0"/>
@@ -14819,7 +15045,7 @@
         <v>1</v>
       </c>
       <c r="CA20" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB20" s="2" t="n">
         <v>2</v>
@@ -15250,7 +15476,9 @@
       <c r="HN20" s="5" t="n">
         <v>162</v>
       </c>
-      <c r="HO20" s="0"/>
+      <c r="HO20" s="0" t="s">
+        <v>214</v>
+      </c>
       <c r="HP20" s="0"/>
       <c r="HQ20" s="0"/>
       <c r="HR20" s="0"/>
@@ -15546,7 +15774,7 @@
         <v>1</v>
       </c>
       <c r="CA21" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB21" s="2" t="n">
         <v>0</v>
@@ -15975,7 +16203,9 @@
       <c r="HN21" s="5" t="n">
         <v>89.4285714286</v>
       </c>
-      <c r="HO21" s="0"/>
+      <c r="HO21" s="0" t="s">
+        <v>215</v>
+      </c>
       <c r="HP21" s="0"/>
       <c r="HQ21" s="0"/>
       <c r="HR21" s="0"/>
@@ -16271,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="CA22" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB22" s="2" t="n">
         <v>0</v>
@@ -16694,7 +16924,9 @@
       <c r="HN22" s="5" t="n">
         <v>109.7142857143</v>
       </c>
-      <c r="HO22" s="0"/>
+      <c r="HO22" s="0" t="s">
+        <v>216</v>
+      </c>
       <c r="HP22" s="0"/>
       <c r="HQ22" s="0"/>
       <c r="HR22" s="0"/>
@@ -16984,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="CA23" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB23" s="13" t="n">
         <v>0</v>
@@ -17191,6 +17423,9 @@
       <c r="HL23" s="0"/>
       <c r="HM23" s="0"/>
       <c r="HN23" s="0"/>
+      <c r="HO23" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
@@ -17446,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="CA24" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB24" s="13" t="n">
         <v>1</v>
@@ -17871,7 +18106,9 @@
       <c r="HN24" s="5" t="n">
         <v>135.5714285714</v>
       </c>
-      <c r="HO24" s="0"/>
+      <c r="HO24" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="HP24" s="0"/>
       <c r="HQ24" s="0"/>
       <c r="HR24" s="0"/>
@@ -18167,7 +18404,7 @@
         <v>1</v>
       </c>
       <c r="CA25" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB25" s="2" t="n">
         <v>2</v>
@@ -18598,7 +18835,9 @@
       <c r="HN25" s="5" t="n">
         <v>153.1428571429</v>
       </c>
-      <c r="HO25" s="0"/>
+      <c r="HO25" s="0" t="s">
+        <v>219</v>
+      </c>
       <c r="HP25" s="0"/>
       <c r="HQ25" s="0"/>
       <c r="HR25" s="0"/>
@@ -18894,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="CA26" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB26" s="2" t="n">
         <v>1</v>
@@ -19323,7 +19562,9 @@
       <c r="HN26" s="5" t="n">
         <v>180.7142857143</v>
       </c>
-      <c r="HO26" s="0"/>
+      <c r="HO26" s="0" t="s">
+        <v>220</v>
+      </c>
       <c r="HP26" s="0"/>
       <c r="HQ26" s="0"/>
       <c r="HR26" s="0"/>
@@ -19619,7 +19860,7 @@
         <v>1</v>
       </c>
       <c r="CA27" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB27" s="2" t="n">
         <v>2</v>
@@ -20044,7 +20285,9 @@
       <c r="HN27" s="5" t="n">
         <v>170.8571428571</v>
       </c>
-      <c r="HO27" s="0"/>
+      <c r="HO27" s="0" t="s">
+        <v>221</v>
+      </c>
       <c r="HP27" s="0"/>
       <c r="HQ27" s="0"/>
       <c r="HR27" s="0"/>
@@ -20334,7 +20577,7 @@
         <v>1</v>
       </c>
       <c r="CA28" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB28" s="13" t="n">
         <v>1</v>
@@ -20737,6 +20980,9 @@
       <c r="HL28" s="0"/>
       <c r="HM28" s="0"/>
       <c r="HN28" s="0"/>
+      <c r="HO28" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
@@ -20992,7 +21238,7 @@
         <v>4</v>
       </c>
       <c r="CA29" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB29" s="13" t="n">
         <v>1</v>
@@ -21373,7 +21619,9 @@
       <c r="HL29" s="0"/>
       <c r="HM29" s="0"/>
       <c r="HN29" s="0"/>
-      <c r="HO29" s="0"/>
+      <c r="HO29" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="HP29" s="0"/>
       <c r="HQ29" s="0"/>
       <c r="HR29" s="0"/>
@@ -21669,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="CA30" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB30" s="2" t="n">
         <v>2</v>
@@ -22098,7 +22346,9 @@
       <c r="HN30" s="5" t="n">
         <v>138.4285714286</v>
       </c>
-      <c r="HO30" s="0"/>
+      <c r="HO30" s="0" t="s">
+        <v>224</v>
+      </c>
       <c r="HP30" s="0"/>
       <c r="HQ30" s="0"/>
       <c r="HR30" s="0"/>
@@ -22388,7 +22638,7 @@
         <v>1</v>
       </c>
       <c r="CA31" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB31" s="13" t="n">
         <v>1</v>
@@ -22816,6 +23066,9 @@
       </c>
       <c r="HN31" s="5" t="n">
         <v>150.8571428571</v>
+      </c>
+      <c r="HO31" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23072,7 +23325,7 @@
         <v>1</v>
       </c>
       <c r="CA32" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB32" s="2" t="n">
         <v>0</v>
@@ -23481,7 +23734,9 @@
       <c r="HL32" s="0"/>
       <c r="HM32" s="0"/>
       <c r="HN32" s="0"/>
-      <c r="HO32" s="0"/>
+      <c r="HO32" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="HP32" s="0"/>
       <c r="HQ32" s="0"/>
       <c r="HR32" s="0"/>
@@ -23771,7 +24026,7 @@
         <v>1</v>
       </c>
       <c r="CA33" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB33" s="13" t="n">
         <v>2</v>
@@ -23972,6 +24227,9 @@
       <c r="HN33" s="5" t="n">
         <v>164.5714285714</v>
       </c>
+      <c r="HO33" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
@@ -24233,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="CA34" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB34" s="2" t="n">
         <v>2</v>
@@ -24662,7 +24920,9 @@
       <c r="HN34" s="5" t="n">
         <v>148.5714285714</v>
       </c>
-      <c r="HO34" s="0"/>
+      <c r="HO34" s="0" t="s">
+        <v>228</v>
+      </c>
       <c r="HP34" s="0"/>
       <c r="HQ34" s="0"/>
       <c r="HR34" s="0"/>
@@ -24958,7 +25218,7 @@
         <v>1</v>
       </c>
       <c r="CA35" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB35" s="2" t="n">
         <v>1</v>
@@ -25387,7 +25647,9 @@
       <c r="HN35" s="5" t="n">
         <v>113.7142857143</v>
       </c>
-      <c r="HO35" s="0"/>
+      <c r="HO35" s="0" t="s">
+        <v>229</v>
+      </c>
       <c r="HP35" s="0"/>
       <c r="HQ35" s="0"/>
       <c r="HR35" s="0"/>
@@ -25677,7 +25939,7 @@
         <v>1</v>
       </c>
       <c r="CA36" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB36" s="13" t="n">
         <v>0</v>
@@ -26086,6 +26348,9 @@
       <c r="HL36" s="0"/>
       <c r="HM36" s="0"/>
       <c r="HN36" s="0"/>
+      <c r="HO36" s="9" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -26347,7 +26612,7 @@
         <v>1</v>
       </c>
       <c r="CA37" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB37" s="2" t="n">
         <v>2</v>
@@ -26778,7 +27043,9 @@
       <c r="HN37" s="5" t="n">
         <v>127.3333333333</v>
       </c>
-      <c r="HO37" s="0"/>
+      <c r="HO37" s="0" t="s">
+        <v>231</v>
+      </c>
       <c r="HP37" s="0"/>
       <c r="HQ37" s="0"/>
       <c r="HR37" s="0"/>
@@ -27074,7 +27341,7 @@
         <v>1</v>
       </c>
       <c r="CA38" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB38" s="2" t="n">
         <v>1</v>
@@ -27505,7 +27772,9 @@
       <c r="HN38" s="5" t="n">
         <v>149.1428571429</v>
       </c>
-      <c r="HO38" s="0"/>
+      <c r="HO38" s="0" t="s">
+        <v>232</v>
+      </c>
       <c r="HP38" s="0"/>
       <c r="HQ38" s="0"/>
       <c r="HR38" s="0"/>
@@ -27795,7 +28064,7 @@
         <v>1</v>
       </c>
       <c r="CA39" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB39" s="13" t="n">
         <v>0</v>
@@ -28002,6 +28271,9 @@
       <c r="HL39" s="0"/>
       <c r="HM39" s="0"/>
       <c r="HN39" s="0"/>
+      <c r="HO39" s="9" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
@@ -28257,7 +28529,7 @@
         <v>1</v>
       </c>
       <c r="CA40" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB40" s="13" t="n">
         <v>0</v>
@@ -28658,7 +28930,9 @@
       <c r="HN40" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="HO40" s="0"/>
+      <c r="HO40" s="0" t="s">
+        <v>234</v>
+      </c>
       <c r="HP40" s="0"/>
       <c r="HQ40" s="0"/>
       <c r="HR40" s="0"/>
@@ -28948,7 +29222,7 @@
         <v>1</v>
       </c>
       <c r="CA41" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB41" s="13" t="n">
         <v>1</v>
@@ -29355,7 +29629,9 @@
       <c r="HL41" s="0"/>
       <c r="HM41" s="0"/>
       <c r="HN41" s="0"/>
-      <c r="HO41" s="0"/>
+      <c r="HO41" s="0" t="s">
+        <v>235</v>
+      </c>
       <c r="HP41" s="0"/>
       <c r="HQ41" s="0"/>
       <c r="HR41" s="0"/>
@@ -29645,7 +29921,7 @@
         <v>1</v>
       </c>
       <c r="CA42" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB42" s="13" t="n">
         <v>0</v>
@@ -30076,7 +30352,9 @@
       <c r="HN42" s="5" t="n">
         <v>137.4285714286</v>
       </c>
-      <c r="HO42" s="0"/>
+      <c r="HO42" s="0" t="s">
+        <v>236</v>
+      </c>
       <c r="HP42" s="0"/>
       <c r="HQ42" s="0"/>
       <c r="HR42" s="0"/>
@@ -30366,7 +30644,7 @@
         <v>1</v>
       </c>
       <c r="CA43" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB43" s="13" t="n">
         <v>0</v>
@@ -30573,7 +30851,9 @@
       <c r="HL43" s="0"/>
       <c r="HM43" s="0"/>
       <c r="HN43" s="0"/>
-      <c r="HO43" s="0"/>
+      <c r="HO43" s="0" t="s">
+        <v>237</v>
+      </c>
       <c r="HP43" s="0"/>
       <c r="HQ43" s="0"/>
       <c r="HR43" s="0"/>
@@ -30863,7 +31143,7 @@
         <v>1</v>
       </c>
       <c r="CA44" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB44" s="13" t="n">
         <v>0</v>
@@ -31292,7 +31572,9 @@
       <c r="HN44" s="5" t="n">
         <v>112.7142857143</v>
       </c>
-      <c r="HO44" s="0"/>
+      <c r="HO44" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="HP44" s="0"/>
       <c r="HQ44" s="0"/>
       <c r="HR44" s="0"/>
@@ -31582,7 +31864,7 @@
         <v>1</v>
       </c>
       <c r="CA45" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB45" s="13" t="n">
         <v>1</v>
@@ -31991,7 +32273,9 @@
       <c r="HL45" s="0"/>
       <c r="HM45" s="0"/>
       <c r="HN45" s="0"/>
-      <c r="HO45" s="0"/>
+      <c r="HO45" s="0" t="s">
+        <v>239</v>
+      </c>
       <c r="HP45" s="0"/>
       <c r="HQ45" s="0"/>
       <c r="HR45" s="0"/>
@@ -32287,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="CA46" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB46" s="2" t="n">
         <v>1</v>
@@ -32718,7 +33002,9 @@
       <c r="HN46" s="5" t="n">
         <v>162.7142857143</v>
       </c>
-      <c r="HO46" s="0"/>
+      <c r="HO46" s="0" t="s">
+        <v>240</v>
+      </c>
       <c r="HP46" s="0"/>
       <c r="HQ46" s="0"/>
       <c r="HR46" s="0"/>
@@ -33008,7 +33294,7 @@
         <v>1</v>
       </c>
       <c r="CA47" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB47" s="13" t="n">
         <v>0</v>
@@ -33409,6 +33695,9 @@
       <c r="HL47" s="0"/>
       <c r="HM47" s="0"/>
       <c r="HN47" s="0"/>
+      <c r="HO47" s="9" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
@@ -33664,7 +33953,7 @@
         <v>1</v>
       </c>
       <c r="CA48" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB48" s="13" t="n">
         <v>1</v>
@@ -34095,7 +34384,9 @@
       <c r="HN48" s="5" t="n">
         <v>157.4285714286</v>
       </c>
-      <c r="HO48" s="0"/>
+      <c r="HO48" s="0" t="s">
+        <v>242</v>
+      </c>
       <c r="HP48" s="0"/>
       <c r="HQ48" s="0"/>
       <c r="HR48" s="0"/>
@@ -34385,7 +34676,7 @@
         <v>1</v>
       </c>
       <c r="CA49" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB49" s="13" t="n">
         <v>1</v>
@@ -34816,7 +35107,9 @@
       <c r="HN49" s="5" t="n">
         <v>145.7142857143</v>
       </c>
-      <c r="HO49" s="0"/>
+      <c r="HO49" s="0" t="s">
+        <v>243</v>
+      </c>
       <c r="HP49" s="0"/>
       <c r="HQ49" s="0"/>
       <c r="HR49" s="0"/>
@@ -35106,7 +35399,7 @@
         <v>1</v>
       </c>
       <c r="CA50" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB50" s="13" t="n">
         <v>0</v>
@@ -35409,7 +35702,9 @@
       <c r="HN50" s="5" t="n">
         <v>143</v>
       </c>
-      <c r="HO50" s="0"/>
+      <c r="HO50" s="0" t="s">
+        <v>244</v>
+      </c>
       <c r="HP50" s="0"/>
       <c r="HQ50" s="0"/>
       <c r="HR50" s="0"/>
@@ -35705,7 +36000,7 @@
         <v>1</v>
       </c>
       <c r="CA51" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB51" s="2" t="n">
         <v>1</v>
@@ -36136,7 +36431,9 @@
       <c r="HN51" s="5" t="n">
         <v>149.2857142857</v>
       </c>
-      <c r="HO51" s="0"/>
+      <c r="HO51" s="0" t="s">
+        <v>245</v>
+      </c>
       <c r="HP51" s="0"/>
       <c r="HQ51" s="0"/>
       <c r="HR51" s="0"/>
@@ -36426,7 +36723,7 @@
         <v>1</v>
       </c>
       <c r="CA52" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB52" s="13" t="n">
         <v>0</v>
@@ -36852,6 +37149,9 @@
       </c>
       <c r="HN52" s="5" t="n">
         <v>118</v>
+      </c>
+      <c r="HO52" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37114,7 +37414,7 @@
         <v>1</v>
       </c>
       <c r="CA53" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB53" s="2" t="n">
         <v>1</v>
@@ -37543,7 +37843,9 @@
       <c r="HN53" s="5" t="n">
         <v>159.2857142857</v>
       </c>
-      <c r="HO53" s="0"/>
+      <c r="HO53" s="0" t="s">
+        <v>247</v>
+      </c>
       <c r="HP53" s="0"/>
       <c r="HQ53" s="0"/>
       <c r="HR53" s="0"/>
@@ -37839,7 +38141,7 @@
         <v>1</v>
       </c>
       <c r="CA54" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CB54" s="2" t="n">
         <v>1</v>
@@ -38246,7 +38548,9 @@
       <c r="HL54" s="0"/>
       <c r="HM54" s="0"/>
       <c r="HN54" s="0"/>
-      <c r="HO54" s="0"/>
+      <c r="HO54" s="0" t="s">
+        <v>248</v>
+      </c>
       <c r="HP54" s="0"/>
       <c r="HQ54" s="0"/>
       <c r="HR54" s="0"/>
@@ -38542,7 +38846,7 @@
         <v>1</v>
       </c>
       <c r="CA55" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CB55" s="2" t="n">
         <v>2</v>
@@ -38969,7 +39273,9 @@
       <c r="HN55" s="5" t="n">
         <v>101.5714285714</v>
       </c>
-      <c r="HO55" s="0"/>
+      <c r="HO55" s="0" t="s">
+        <v>249</v>
+      </c>
       <c r="HP55" s="0"/>
       <c r="HQ55" s="0"/>
       <c r="HR55" s="0"/>
@@ -39259,7 +39565,7 @@
         <v>1</v>
       </c>
       <c r="CA56" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB56" s="13" t="n">
         <v>0</v>
@@ -39684,6 +39990,9 @@
       <c r="HN56" s="5" t="n">
         <v>90.4285714286</v>
       </c>
+      <c r="HO56" s="9" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
@@ -39939,7 +40248,7 @@
         <v>1</v>
       </c>
       <c r="CA57" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB57" s="13" t="n">
         <v>0</v>
@@ -40146,7 +40455,9 @@
       <c r="HL57" s="0"/>
       <c r="HM57" s="0"/>
       <c r="HN57" s="0"/>
-      <c r="HO57" s="0"/>
+      <c r="HO57" s="0" t="s">
+        <v>251</v>
+      </c>
       <c r="HP57" s="0"/>
       <c r="HQ57" s="0"/>
       <c r="HR57" s="0"/>
@@ -40442,7 +40753,7 @@
         <v>1</v>
       </c>
       <c r="CA58" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB58" s="2" t="n">
         <v>0</v>
@@ -40851,7 +41162,9 @@
       <c r="HL58" s="0"/>
       <c r="HM58" s="0"/>
       <c r="HN58" s="0"/>
-      <c r="HO58" s="0"/>
+      <c r="HO58" s="0" t="s">
+        <v>252</v>
+      </c>
       <c r="HP58" s="0"/>
       <c r="HQ58" s="0"/>
       <c r="HR58" s="0"/>
@@ -41141,7 +41454,7 @@
         <v>1</v>
       </c>
       <c r="CA59" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB59" s="13" t="n">
         <v>0</v>
@@ -41370,6 +41683,9 @@
       <c r="HN59" s="5" t="n">
         <v>125.7142857143</v>
       </c>
+      <c r="HO59" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -41631,7 +41947,7 @@
         <v>1</v>
       </c>
       <c r="CA60" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB60" s="2" t="n">
         <v>0</v>
@@ -42060,7 +42376,9 @@
       <c r="HN60" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="HO60" s="0"/>
+      <c r="HO60" s="0" t="s">
+        <v>254</v>
+      </c>
       <c r="HP60" s="0"/>
       <c r="HQ60" s="0"/>
       <c r="HR60" s="0"/>
@@ -42356,7 +42674,7 @@
         <v>1</v>
       </c>
       <c r="CA61" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CB61" s="2" t="n">
         <v>0</v>
@@ -42755,7 +43073,9 @@
       <c r="HN61" s="5" t="n">
         <v>198.8571428571</v>
       </c>
-      <c r="HO61" s="0"/>
+      <c r="HO61" s="0" t="s">
+        <v>255</v>
+      </c>
       <c r="HP61" s="0"/>
       <c r="HQ61" s="0"/>
       <c r="HR61" s="0"/>
